--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.4114921836081</v>
+        <v>24.62964533333333</v>
       </c>
       <c r="H2">
-        <v>21.4114921836081</v>
+        <v>73.888936</v>
       </c>
       <c r="I2">
-        <v>0.7739739956128967</v>
+        <v>0.7460691037955391</v>
       </c>
       <c r="J2">
-        <v>0.7739739956128967</v>
+        <v>0.746069103795539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N2">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O2">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P2">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q2">
-        <v>1365.668417961664</v>
+        <v>1581.751708699917</v>
       </c>
       <c r="R2">
-        <v>1365.668417961664</v>
+        <v>14235.76537829926</v>
       </c>
       <c r="S2">
-        <v>0.6507219169567694</v>
+        <v>0.6242069449145827</v>
       </c>
       <c r="T2">
-        <v>0.6507219169567694</v>
+        <v>0.6242069449145826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.4114921836081</v>
+        <v>24.62964533333333</v>
       </c>
       <c r="H3">
-        <v>21.4114921836081</v>
+        <v>73.888936</v>
       </c>
       <c r="I3">
-        <v>0.7739739956128967</v>
+        <v>0.7460691037955391</v>
       </c>
       <c r="J3">
-        <v>0.7739739956128967</v>
+        <v>0.746069103795539</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N3">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O3">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P3">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q3">
-        <v>219.9068580712394</v>
+        <v>260.6441330368773</v>
       </c>
       <c r="R3">
-        <v>219.9068580712394</v>
+        <v>2345.797197331896</v>
       </c>
       <c r="S3">
-        <v>0.104782544835912</v>
+        <v>0.102858038400087</v>
       </c>
       <c r="T3">
-        <v>0.104782544835912</v>
+        <v>0.1028580384000869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.4114921836081</v>
+        <v>24.62964533333333</v>
       </c>
       <c r="H4">
-        <v>21.4114921836081</v>
+        <v>73.888936</v>
       </c>
       <c r="I4">
-        <v>0.7739739956128967</v>
+        <v>0.7460691037955391</v>
       </c>
       <c r="J4">
-        <v>0.7739739956128967</v>
+        <v>0.746069103795539</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.81033451196268</v>
+        <v>1.955236666666667</v>
       </c>
       <c r="N4">
-        <v>1.81033451196268</v>
+        <v>5.86571</v>
       </c>
       <c r="O4">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="P4">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="Q4">
-        <v>38.76196325260491</v>
+        <v>48.15678564272889</v>
       </c>
       <c r="R4">
-        <v>38.76196325260491</v>
+        <v>433.41107078456</v>
       </c>
       <c r="S4">
-        <v>0.01846953382021533</v>
+        <v>0.01900412048086939</v>
       </c>
       <c r="T4">
-        <v>0.01846953382021533</v>
+        <v>0.01900412048086938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.76717706712747</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H5">
-        <v>1.76717706712747</v>
+        <v>5.309089</v>
       </c>
       <c r="I5">
-        <v>0.0638792048621081</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="J5">
-        <v>0.0638792048621081</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N5">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O5">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P5">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q5">
-        <v>112.7141391560605</v>
+        <v>113.6524769742243</v>
       </c>
       <c r="R5">
-        <v>112.7141391560605</v>
+        <v>1022.872292768019</v>
       </c>
       <c r="S5">
-        <v>0.05370671221147229</v>
+        <v>0.04485069625267871</v>
       </c>
       <c r="T5">
-        <v>0.05370671221147229</v>
+        <v>0.04485069625267871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.76717706712747</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H6">
-        <v>1.76717706712747</v>
+        <v>5.309089</v>
       </c>
       <c r="I6">
-        <v>0.0638792048621081</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="J6">
-        <v>0.0638792048621081</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N6">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O6">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P6">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q6">
-        <v>18.14980259923497</v>
+        <v>18.72787692626433</v>
       </c>
       <c r="R6">
-        <v>18.14980259923497</v>
+        <v>168.550892336379</v>
       </c>
       <c r="S6">
-        <v>0.00864812730852261</v>
+        <v>0.007390585245827323</v>
       </c>
       <c r="T6">
-        <v>0.00864812730852261</v>
+        <v>0.00739058524582732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.76717706712747</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H7">
-        <v>1.76717706712747</v>
+        <v>5.309089</v>
       </c>
       <c r="I7">
-        <v>0.0638792048621081</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="J7">
-        <v>0.0638792048621081</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.81033451196268</v>
+        <v>1.955236666666667</v>
       </c>
       <c r="N7">
-        <v>1.81033451196268</v>
+        <v>5.86571</v>
       </c>
       <c r="O7">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="P7">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="Q7">
-        <v>3.199181633369848</v>
+        <v>3.460175159798889</v>
       </c>
       <c r="R7">
-        <v>3.199181633369848</v>
+        <v>31.14157643819</v>
       </c>
       <c r="S7">
-        <v>0.001524365342113194</v>
+        <v>0.001365489509818606</v>
       </c>
       <c r="T7">
-        <v>0.001524365342113194</v>
+        <v>0.001365489509818606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.11268685285666</v>
+        <v>1.275024</v>
       </c>
       <c r="H8">
-        <v>1.11268685285666</v>
+        <v>3.825072</v>
       </c>
       <c r="I8">
-        <v>0.04022095620363658</v>
+        <v>0.03862239996247084</v>
       </c>
       <c r="J8">
-        <v>0.04022095620363658</v>
+        <v>0.03862239996247083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N8">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O8">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P8">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q8">
-        <v>70.96942525055873</v>
+        <v>81.883898989968</v>
       </c>
       <c r="R8">
-        <v>70.96942525055873</v>
+        <v>736.9550909097121</v>
       </c>
       <c r="S8">
-        <v>0.03381593938687692</v>
+        <v>0.03231385693790898</v>
       </c>
       <c r="T8">
-        <v>0.03381593938687692</v>
+        <v>0.03231385693790897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.11268685285666</v>
+        <v>1.275024</v>
       </c>
       <c r="H9">
-        <v>1.11268685285666</v>
+        <v>3.825072</v>
       </c>
       <c r="I9">
-        <v>0.04022095620363658</v>
+        <v>0.03862239996247084</v>
       </c>
       <c r="J9">
-        <v>0.04022095620363658</v>
+        <v>0.03862239996247083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N9">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O9">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P9">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q9">
-        <v>11.42785695320235</v>
+        <v>13.492988655888</v>
       </c>
       <c r="R9">
-        <v>11.42785695320235</v>
+        <v>121.436897902992</v>
       </c>
       <c r="S9">
-        <v>0.005445214142386592</v>
+        <v>0.00532474040036383</v>
       </c>
       <c r="T9">
-        <v>0.005445214142386592</v>
+        <v>0.005324740400363829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.11268685285666</v>
+        <v>1.275024</v>
       </c>
       <c r="H10">
-        <v>1.11268685285666</v>
+        <v>3.825072</v>
       </c>
       <c r="I10">
-        <v>0.04022095620363658</v>
+        <v>0.03862239996247084</v>
       </c>
       <c r="J10">
-        <v>0.04022095620363658</v>
+        <v>0.03862239996247083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.81033451196268</v>
+        <v>1.955236666666667</v>
       </c>
       <c r="N10">
-        <v>1.81033451196268</v>
+        <v>5.86571</v>
       </c>
       <c r="O10">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="P10">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="Q10">
-        <v>2.014335410733552</v>
+        <v>2.49297367568</v>
       </c>
       <c r="R10">
-        <v>2.014335410733552</v>
+        <v>22.43676308112</v>
       </c>
       <c r="S10">
-        <v>0.0009598026743730655</v>
+        <v>0.0009838026241980261</v>
       </c>
       <c r="T10">
-        <v>0.0009598026743730655</v>
+        <v>0.0009838026241980259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.37299994063469</v>
+        <v>5.338186666666666</v>
       </c>
       <c r="H11">
-        <v>3.37299994063469</v>
+        <v>16.01456</v>
       </c>
       <c r="I11">
-        <v>0.1219258433213586</v>
+        <v>0.1617017252336654</v>
       </c>
       <c r="J11">
-        <v>0.1219258433213586</v>
+        <v>0.1617017252336654</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N11">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O11">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P11">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q11">
-        <v>215.136780435969</v>
+        <v>342.8261254713066</v>
       </c>
       <c r="R11">
-        <v>215.136780435969</v>
+        <v>3085.43512924176</v>
       </c>
       <c r="S11">
-        <v>0.1025096695009983</v>
+        <v>0.1352895320045112</v>
       </c>
       <c r="T11">
-        <v>0.1025096695009983</v>
+        <v>0.1352895320045112</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.37299994063469</v>
+        <v>5.338186666666666</v>
       </c>
       <c r="H12">
-        <v>3.37299994063469</v>
+        <v>16.01456</v>
       </c>
       <c r="I12">
-        <v>0.1219258433213586</v>
+        <v>0.1617017252336654</v>
       </c>
       <c r="J12">
-        <v>0.1219258433213586</v>
+        <v>0.1617017252336654</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N12">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O12">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P12">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q12">
-        <v>34.64241599132015</v>
+        <v>56.49155791290666</v>
       </c>
       <c r="R12">
-        <v>34.64241599132015</v>
+        <v>508.42402121616</v>
       </c>
       <c r="S12">
-        <v>0.01650662711782684</v>
+        <v>0.02229327307461156</v>
       </c>
       <c r="T12">
-        <v>0.01650662711782684</v>
+        <v>0.02229327307461155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.37299994063469</v>
+        <v>5.338186666666666</v>
       </c>
       <c r="H13">
-        <v>3.37299994063469</v>
+        <v>16.01456</v>
       </c>
       <c r="I13">
-        <v>0.1219258433213586</v>
+        <v>0.1617017252336654</v>
       </c>
       <c r="J13">
-        <v>0.1219258433213586</v>
+        <v>0.1617017252336654</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.81033451196268</v>
+        <v>1.955236666666667</v>
       </c>
       <c r="N13">
-        <v>1.81033451196268</v>
+        <v>5.86571</v>
       </c>
       <c r="O13">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="P13">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="Q13">
-        <v>6.10625820137905</v>
+        <v>10.43741830417778</v>
       </c>
       <c r="R13">
-        <v>6.10625820137905</v>
+        <v>93.9367647376</v>
       </c>
       <c r="S13">
-        <v>0.002909546702533405</v>
+        <v>0.004118920154542645</v>
       </c>
       <c r="T13">
-        <v>0.002909546702533405</v>
+        <v>0.004118920154542643</v>
       </c>
     </row>
   </sheetData>
